--- a/docs/colleges_final_test.xlsx
+++ b/docs/colleges_final_test.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\freelancing\freelancing-college\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -172,21 +180,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -196,7 +207,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -206,7 +217,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -220,56 +237,50 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -459,23 +470,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="13" max="13" width="39.14"/>
+    <col min="13" max="13" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +547,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -572,7 +588,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="6">
-        <v>7.873160006E9</v>
+        <v>8917507054</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -587,7 +603,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -628,7 +644,7 @@
         <v>37</v>
       </c>
       <c r="N3" s="8">
-        <v>7.873160006E9</v>
+        <v>7873160006</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -643,7 +659,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -684,7 +700,7 @@
         <v>48</v>
       </c>
       <c r="N4" s="8">
-        <v>7.873160006E9</v>
+        <v>7873160006</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -699,2995 +715,2995 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M40" s="9"/>
     </row>
-    <row r="41">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M41" s="9"/>
     </row>
-    <row r="42">
+    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M42" s="9"/>
     </row>
-    <row r="43">
+    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M44" s="9"/>
     </row>
-    <row r="45">
+    <row r="45" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M45" s="9"/>
     </row>
-    <row r="46">
+    <row r="46" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M46" s="9"/>
     </row>
-    <row r="47">
+    <row r="47" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M47" s="9"/>
     </row>
-    <row r="48">
+    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M48" s="9"/>
     </row>
-    <row r="49">
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M49" s="9"/>
     </row>
-    <row r="50">
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M50" s="9"/>
     </row>
-    <row r="51">
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M51" s="9"/>
     </row>
-    <row r="52">
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M52" s="9"/>
     </row>
-    <row r="53">
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M53" s="9"/>
     </row>
-    <row r="54">
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M54" s="9"/>
     </row>
-    <row r="55">
+    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M55" s="9"/>
     </row>
-    <row r="56">
+    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M56" s="9"/>
     </row>
-    <row r="57">
+    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M57" s="9"/>
     </row>
-    <row r="58">
+    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M58" s="9"/>
     </row>
-    <row r="59">
+    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M59" s="9"/>
     </row>
-    <row r="60">
+    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M60" s="9"/>
     </row>
-    <row r="61">
+    <row r="61" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M61" s="9"/>
     </row>
-    <row r="62">
+    <row r="62" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M62" s="9"/>
     </row>
-    <row r="63">
+    <row r="63" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M63" s="9"/>
     </row>
-    <row r="64">
+    <row r="64" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M65" s="9"/>
     </row>
-    <row r="66">
+    <row r="66" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M66" s="9"/>
     </row>
-    <row r="67">
+    <row r="67" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M67" s="9"/>
     </row>
-    <row r="68">
+    <row r="68" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M69" s="9"/>
     </row>
-    <row r="70">
+    <row r="70" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M70" s="9"/>
     </row>
-    <row r="71">
+    <row r="71" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M71" s="9"/>
     </row>
-    <row r="72">
+    <row r="72" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M72" s="9"/>
     </row>
-    <row r="73">
+    <row r="73" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M73" s="9"/>
     </row>
-    <row r="74">
+    <row r="74" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M74" s="9"/>
     </row>
-    <row r="75">
+    <row r="75" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M75" s="9"/>
     </row>
-    <row r="76">
+    <row r="76" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M76" s="9"/>
     </row>
-    <row r="77">
+    <row r="77" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M77" s="9"/>
     </row>
-    <row r="78">
+    <row r="78" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M78" s="9"/>
     </row>
-    <row r="79">
+    <row r="79" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M79" s="9"/>
     </row>
-    <row r="80">
+    <row r="80" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M80" s="9"/>
     </row>
-    <row r="81">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M81" s="9"/>
     </row>
-    <row r="82">
+    <row r="82" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M82" s="9"/>
     </row>
-    <row r="83">
+    <row r="83" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M83" s="9"/>
     </row>
-    <row r="84">
+    <row r="84" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M84" s="9"/>
     </row>
-    <row r="85">
+    <row r="85" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M85" s="9"/>
     </row>
-    <row r="86">
+    <row r="86" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M86" s="9"/>
     </row>
-    <row r="87">
+    <row r="87" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M87" s="9"/>
     </row>
-    <row r="88">
+    <row r="88" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M88" s="9"/>
     </row>
-    <row r="89">
+    <row r="89" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M89" s="9"/>
     </row>
-    <row r="90">
+    <row r="90" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M90" s="9"/>
     </row>
-    <row r="91">
+    <row r="91" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M91" s="9"/>
     </row>
-    <row r="92">
+    <row r="92" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M92" s="9"/>
     </row>
-    <row r="93">
+    <row r="93" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M93" s="9"/>
     </row>
-    <row r="94">
+    <row r="94" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M94" s="9"/>
     </row>
-    <row r="95">
+    <row r="95" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M95" s="9"/>
     </row>
-    <row r="96">
+    <row r="96" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M96" s="9"/>
     </row>
-    <row r="97">
+    <row r="97" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M97" s="9"/>
     </row>
-    <row r="98">
+    <row r="98" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M98" s="9"/>
     </row>
-    <row r="99">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M100" s="9"/>
     </row>
-    <row r="101">
+    <row r="101" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M101" s="9"/>
     </row>
-    <row r="102">
+    <row r="102" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M102" s="9"/>
     </row>
-    <row r="103">
+    <row r="103" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M103" s="9"/>
     </row>
-    <row r="104">
+    <row r="104" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M104" s="9"/>
     </row>
-    <row r="105">
+    <row r="105" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M105" s="9"/>
     </row>
-    <row r="106">
+    <row r="106" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M106" s="9"/>
     </row>
-    <row r="107">
+    <row r="107" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M107" s="9"/>
     </row>
-    <row r="108">
+    <row r="108" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M108" s="9"/>
     </row>
-    <row r="109">
+    <row r="109" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M109" s="9"/>
     </row>
-    <row r="110">
+    <row r="110" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M110" s="9"/>
     </row>
-    <row r="111">
+    <row r="111" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M111" s="9"/>
     </row>
-    <row r="112">
+    <row r="112" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M112" s="9"/>
     </row>
-    <row r="113">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M113" s="9"/>
     </row>
-    <row r="114">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M114" s="9"/>
     </row>
-    <row r="115">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M115" s="9"/>
     </row>
-    <row r="116">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M116" s="9"/>
     </row>
-    <row r="117">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M117" s="9"/>
     </row>
-    <row r="118">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M118" s="9"/>
     </row>
-    <row r="119">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M119" s="9"/>
     </row>
-    <row r="120">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M120" s="9"/>
     </row>
-    <row r="121">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M121" s="9"/>
     </row>
-    <row r="122">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M122" s="9"/>
     </row>
-    <row r="123">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M123" s="9"/>
     </row>
-    <row r="124">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M124" s="9"/>
     </row>
-    <row r="125">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M125" s="9"/>
     </row>
-    <row r="126">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M126" s="9"/>
     </row>
-    <row r="127">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M127" s="9"/>
     </row>
-    <row r="128">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M128" s="9"/>
     </row>
-    <row r="129">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M129" s="9"/>
     </row>
-    <row r="130">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M130" s="9"/>
     </row>
-    <row r="131">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M131" s="9"/>
     </row>
-    <row r="132">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M132" s="9"/>
     </row>
-    <row r="133">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M133" s="9"/>
     </row>
-    <row r="134">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M134" s="9"/>
     </row>
-    <row r="135">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M135" s="9"/>
     </row>
-    <row r="136">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M136" s="9"/>
     </row>
-    <row r="137">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M137" s="9"/>
     </row>
-    <row r="138">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M138" s="9"/>
     </row>
-    <row r="139">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M139" s="9"/>
     </row>
-    <row r="140">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M140" s="9"/>
     </row>
-    <row r="141">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M141" s="9"/>
     </row>
-    <row r="142">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M142" s="9"/>
     </row>
-    <row r="143">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M143" s="9"/>
     </row>
-    <row r="144">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M144" s="9"/>
     </row>
-    <row r="145">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M145" s="9"/>
     </row>
-    <row r="146">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M146" s="9"/>
     </row>
-    <row r="147">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M147" s="9"/>
     </row>
-    <row r="148">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M148" s="9"/>
     </row>
-    <row r="149">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M149" s="9"/>
     </row>
-    <row r="150">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M150" s="9"/>
     </row>
-    <row r="151">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M151" s="9"/>
     </row>
-    <row r="152">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M152" s="9"/>
     </row>
-    <row r="153">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M153" s="9"/>
     </row>
-    <row r="154">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M154" s="9"/>
     </row>
-    <row r="155">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M155" s="9"/>
     </row>
-    <row r="156">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M156" s="9"/>
     </row>
-    <row r="157">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M157" s="9"/>
     </row>
-    <row r="158">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M158" s="9"/>
     </row>
-    <row r="159">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M159" s="9"/>
     </row>
-    <row r="160">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M160" s="9"/>
     </row>
-    <row r="161">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M161" s="9"/>
     </row>
-    <row r="162">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M162" s="9"/>
     </row>
-    <row r="163">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M163" s="9"/>
     </row>
-    <row r="164">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M164" s="9"/>
     </row>
-    <row r="165">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M165" s="9"/>
     </row>
-    <row r="166">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M166" s="9"/>
     </row>
-    <row r="167">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M167" s="9"/>
     </row>
-    <row r="168">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M168" s="9"/>
     </row>
-    <row r="169">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M169" s="9"/>
     </row>
-    <row r="170">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M170" s="9"/>
     </row>
-    <row r="171">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M171" s="9"/>
     </row>
-    <row r="172">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M172" s="9"/>
     </row>
-    <row r="173">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M173" s="9"/>
     </row>
-    <row r="174">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M174" s="9"/>
     </row>
-    <row r="175">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M175" s="9"/>
     </row>
-    <row r="176">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M176" s="9"/>
     </row>
-    <row r="177">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M177" s="9"/>
     </row>
-    <row r="178">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M178" s="9"/>
     </row>
-    <row r="179">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M179" s="9"/>
     </row>
-    <row r="180">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M180" s="9"/>
     </row>
-    <row r="181">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M181" s="9"/>
     </row>
-    <row r="182">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M182" s="9"/>
     </row>
-    <row r="183">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M183" s="9"/>
     </row>
-    <row r="184">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M184" s="9"/>
     </row>
-    <row r="185">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M185" s="9"/>
     </row>
-    <row r="186">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M186" s="9"/>
     </row>
-    <row r="187">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M187" s="9"/>
     </row>
-    <row r="188">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M188" s="9"/>
     </row>
-    <row r="189">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M189" s="9"/>
     </row>
-    <row r="190">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M190" s="9"/>
     </row>
-    <row r="191">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M191" s="9"/>
     </row>
-    <row r="192">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M192" s="9"/>
     </row>
-    <row r="193">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M193" s="9"/>
     </row>
-    <row r="194">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M194" s="9"/>
     </row>
-    <row r="195">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M195" s="9"/>
     </row>
-    <row r="196">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M196" s="9"/>
     </row>
-    <row r="197">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M197" s="9"/>
     </row>
-    <row r="198">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M198" s="9"/>
     </row>
-    <row r="199">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M199" s="9"/>
     </row>
-    <row r="200">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M200" s="9"/>
     </row>
-    <row r="201">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M201" s="9"/>
     </row>
-    <row r="202">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M202" s="9"/>
     </row>
-    <row r="203">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M203" s="9"/>
     </row>
-    <row r="204">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M204" s="9"/>
     </row>
-    <row r="205">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M205" s="9"/>
     </row>
-    <row r="206">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M206" s="9"/>
     </row>
-    <row r="207">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M207" s="9"/>
     </row>
-    <row r="208">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M208" s="9"/>
     </row>
-    <row r="209">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M209" s="9"/>
     </row>
-    <row r="210">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M210" s="9"/>
     </row>
-    <row r="211">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M211" s="9"/>
     </row>
-    <row r="212">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M212" s="9"/>
     </row>
-    <row r="213">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M213" s="9"/>
     </row>
-    <row r="214">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M214" s="9"/>
     </row>
-    <row r="215">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M215" s="9"/>
     </row>
-    <row r="216">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M216" s="9"/>
     </row>
-    <row r="217">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M217" s="9"/>
     </row>
-    <row r="218">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M218" s="9"/>
     </row>
-    <row r="219">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M219" s="9"/>
     </row>
-    <row r="220">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M220" s="9"/>
     </row>
-    <row r="221">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M221" s="9"/>
     </row>
-    <row r="222">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M222" s="9"/>
     </row>
-    <row r="223">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M223" s="9"/>
     </row>
-    <row r="224">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M224" s="9"/>
     </row>
-    <row r="225">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M226" s="9"/>
     </row>
-    <row r="227">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M227" s="9"/>
     </row>
-    <row r="228">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M229" s="9"/>
     </row>
-    <row r="230">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M232" s="9"/>
     </row>
-    <row r="233">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M237" s="9"/>
     </row>
-    <row r="238">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M239" s="9"/>
     </row>
-    <row r="240">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M240" s="9"/>
     </row>
-    <row r="241">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M524" s="9"/>
     </row>
-    <row r="525">
+    <row r="525" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M525" s="9"/>
     </row>
-    <row r="526">
+    <row r="526" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M526" s="9"/>
     </row>
-    <row r="527">
+    <row r="527" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M527" s="9"/>
     </row>
-    <row r="528">
+    <row r="528" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M528" s="9"/>
     </row>
-    <row r="529">
+    <row r="529" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M529" s="9"/>
     </row>
-    <row r="530">
+    <row r="530" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M530" s="9"/>
     </row>
-    <row r="531">
+    <row r="531" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M531" s="9"/>
     </row>
-    <row r="532">
+    <row r="532" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M532" s="9"/>
     </row>
-    <row r="533">
+    <row r="533" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M533" s="9"/>
     </row>
-    <row r="534">
+    <row r="534" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M534" s="9"/>
     </row>
-    <row r="535">
+    <row r="535" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M535" s="9"/>
     </row>
-    <row r="536">
+    <row r="536" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M536" s="9"/>
     </row>
-    <row r="537">
+    <row r="537" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M537" s="9"/>
     </row>
-    <row r="538">
+    <row r="538" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M538" s="9"/>
     </row>
-    <row r="539">
+    <row r="539" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M539" s="9"/>
     </row>
-    <row r="540">
+    <row r="540" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M540" s="9"/>
     </row>
-    <row r="541">
+    <row r="541" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M541" s="9"/>
     </row>
-    <row r="542">
+    <row r="542" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M542" s="9"/>
     </row>
-    <row r="543">
+    <row r="543" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M543" s="9"/>
     </row>
-    <row r="544">
+    <row r="544" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M544" s="9"/>
     </row>
-    <row r="545">
+    <row r="545" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M545" s="9"/>
     </row>
-    <row r="546">
+    <row r="546" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M546" s="9"/>
     </row>
-    <row r="547">
+    <row r="547" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M547" s="9"/>
     </row>
-    <row r="548">
+    <row r="548" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M548" s="9"/>
     </row>
-    <row r="549">
+    <row r="549" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M549" s="9"/>
     </row>
-    <row r="550">
+    <row r="550" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M550" s="9"/>
     </row>
-    <row r="551">
+    <row r="551" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M551" s="9"/>
     </row>
-    <row r="552">
+    <row r="552" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M552" s="9"/>
     </row>
-    <row r="553">
+    <row r="553" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M553" s="9"/>
     </row>
-    <row r="554">
+    <row r="554" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M554" s="9"/>
     </row>
-    <row r="555">
+    <row r="555" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M555" s="9"/>
     </row>
-    <row r="556">
+    <row r="556" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M556" s="9"/>
     </row>
-    <row r="557">
+    <row r="557" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M557" s="9"/>
     </row>
-    <row r="558">
+    <row r="558" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M558" s="9"/>
     </row>
-    <row r="559">
+    <row r="559" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M559" s="9"/>
     </row>
-    <row r="560">
+    <row r="560" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M560" s="9"/>
     </row>
-    <row r="561">
+    <row r="561" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M561" s="9"/>
     </row>
-    <row r="562">
+    <row r="562" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M562" s="9"/>
     </row>
-    <row r="563">
+    <row r="563" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M563" s="9"/>
     </row>
-    <row r="564">
+    <row r="564" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M564" s="9"/>
     </row>
-    <row r="565">
+    <row r="565" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M565" s="9"/>
     </row>
-    <row r="566">
+    <row r="566" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M566" s="9"/>
     </row>
-    <row r="567">
+    <row r="567" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M567" s="9"/>
     </row>
-    <row r="568">
+    <row r="568" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M568" s="9"/>
     </row>
-    <row r="569">
+    <row r="569" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M569" s="9"/>
     </row>
-    <row r="570">
+    <row r="570" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M570" s="9"/>
     </row>
-    <row r="571">
+    <row r="571" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M571" s="9"/>
     </row>
-    <row r="572">
+    <row r="572" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M572" s="9"/>
     </row>
-    <row r="573">
+    <row r="573" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M573" s="9"/>
     </row>
-    <row r="574">
+    <row r="574" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M574" s="9"/>
     </row>
-    <row r="575">
+    <row r="575" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M575" s="9"/>
     </row>
-    <row r="576">
+    <row r="576" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M576" s="9"/>
     </row>
-    <row r="577">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M577" s="9"/>
     </row>
-    <row r="578">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M578" s="9"/>
     </row>
-    <row r="579">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M579" s="9"/>
     </row>
-    <row r="580">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M580" s="9"/>
     </row>
-    <row r="581">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M581" s="9"/>
     </row>
-    <row r="582">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M582" s="9"/>
     </row>
-    <row r="583">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M583" s="9"/>
     </row>
-    <row r="584">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M584" s="9"/>
     </row>
-    <row r="585">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M585" s="9"/>
     </row>
-    <row r="586">
+    <row r="586" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M586" s="9"/>
     </row>
-    <row r="587">
+    <row r="587" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M587" s="9"/>
     </row>
-    <row r="588">
+    <row r="588" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M588" s="9"/>
     </row>
-    <row r="589">
+    <row r="589" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M589" s="9"/>
     </row>
-    <row r="590">
+    <row r="590" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M590" s="9"/>
     </row>
-    <row r="591">
+    <row r="591" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M591" s="9"/>
     </row>
-    <row r="592">
+    <row r="592" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M592" s="9"/>
     </row>
-    <row r="593">
+    <row r="593" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M593" s="9"/>
     </row>
-    <row r="594">
+    <row r="594" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M594" s="9"/>
     </row>
-    <row r="595">
+    <row r="595" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M595" s="9"/>
     </row>
-    <row r="596">
+    <row r="596" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M596" s="9"/>
     </row>
-    <row r="597">
+    <row r="597" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M597" s="9"/>
     </row>
-    <row r="598">
+    <row r="598" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M598" s="9"/>
     </row>
-    <row r="599">
+    <row r="599" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M599" s="9"/>
     </row>
-    <row r="600">
+    <row r="600" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M600" s="9"/>
     </row>
-    <row r="601">
+    <row r="601" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M601" s="9"/>
     </row>
-    <row r="602">
+    <row r="602" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M602" s="9"/>
     </row>
-    <row r="603">
+    <row r="603" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M603" s="9"/>
     </row>
-    <row r="604">
+    <row r="604" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M604" s="9"/>
     </row>
-    <row r="605">
+    <row r="605" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M605" s="9"/>
     </row>
-    <row r="606">
+    <row r="606" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M606" s="9"/>
     </row>
-    <row r="607">
+    <row r="607" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M607" s="9"/>
     </row>
-    <row r="608">
+    <row r="608" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M608" s="9"/>
     </row>
-    <row r="609">
+    <row r="609" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M609" s="9"/>
     </row>
-    <row r="610">
+    <row r="610" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M610" s="9"/>
     </row>
-    <row r="611">
+    <row r="611" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M611" s="9"/>
     </row>
-    <row r="612">
+    <row r="612" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M612" s="9"/>
     </row>
-    <row r="613">
+    <row r="613" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M613" s="9"/>
     </row>
-    <row r="614">
+    <row r="614" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M614" s="9"/>
     </row>
-    <row r="615">
+    <row r="615" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M615" s="9"/>
     </row>
-    <row r="616">
+    <row r="616" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M616" s="9"/>
     </row>
-    <row r="617">
+    <row r="617" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M617" s="9"/>
     </row>
-    <row r="618">
+    <row r="618" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M618" s="9"/>
     </row>
-    <row r="619">
+    <row r="619" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M619" s="9"/>
     </row>
-    <row r="620">
+    <row r="620" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M620" s="9"/>
     </row>
-    <row r="621">
+    <row r="621" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M621" s="9"/>
     </row>
-    <row r="622">
+    <row r="622" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M622" s="9"/>
     </row>
-    <row r="623">
+    <row r="623" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M623" s="9"/>
     </row>
-    <row r="624">
+    <row r="624" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M624" s="9"/>
     </row>
-    <row r="625">
+    <row r="625" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M625" s="9"/>
     </row>
-    <row r="626">
+    <row r="626" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M626" s="9"/>
     </row>
-    <row r="627">
+    <row r="627" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M627" s="9"/>
     </row>
-    <row r="628">
+    <row r="628" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M628" s="9"/>
     </row>
-    <row r="629">
+    <row r="629" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M629" s="9"/>
     </row>
-    <row r="630">
+    <row r="630" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M630" s="9"/>
     </row>
-    <row r="631">
+    <row r="631" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M631" s="9"/>
     </row>
-    <row r="632">
+    <row r="632" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M632" s="9"/>
     </row>
-    <row r="633">
+    <row r="633" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M633" s="9"/>
     </row>
-    <row r="634">
+    <row r="634" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M634" s="9"/>
     </row>
-    <row r="635">
+    <row r="635" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M635" s="9"/>
     </row>
-    <row r="636">
+    <row r="636" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M636" s="9"/>
     </row>
-    <row r="637">
+    <row r="637" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M637" s="9"/>
     </row>
-    <row r="638">
+    <row r="638" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M638" s="9"/>
     </row>
-    <row r="639">
+    <row r="639" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M639" s="9"/>
     </row>
-    <row r="640">
+    <row r="640" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M640" s="9"/>
     </row>
-    <row r="641">
+    <row r="641" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M641" s="9"/>
     </row>
-    <row r="642">
+    <row r="642" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M642" s="9"/>
     </row>
-    <row r="643">
+    <row r="643" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M643" s="9"/>
     </row>
-    <row r="644">
+    <row r="644" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M644" s="9"/>
     </row>
-    <row r="645">
+    <row r="645" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M645" s="9"/>
     </row>
-    <row r="646">
+    <row r="646" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M646" s="9"/>
     </row>
-    <row r="647">
+    <row r="647" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M647" s="9"/>
     </row>
-    <row r="648">
+    <row r="648" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M648" s="9"/>
     </row>
-    <row r="649">
+    <row r="649" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M649" s="9"/>
     </row>
-    <row r="650">
+    <row r="650" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M650" s="9"/>
     </row>
-    <row r="651">
+    <row r="651" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M651" s="9"/>
     </row>
-    <row r="652">
+    <row r="652" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M652" s="9"/>
     </row>
-    <row r="653">
+    <row r="653" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M653" s="9"/>
     </row>
-    <row r="654">
+    <row r="654" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M654" s="9"/>
     </row>
-    <row r="655">
+    <row r="655" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M655" s="9"/>
     </row>
-    <row r="656">
+    <row r="656" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M656" s="9"/>
     </row>
-    <row r="657">
+    <row r="657" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M657" s="9"/>
     </row>
-    <row r="658">
+    <row r="658" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M658" s="9"/>
     </row>
-    <row r="659">
+    <row r="659" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M659" s="9"/>
     </row>
-    <row r="660">
+    <row r="660" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M660" s="9"/>
     </row>
-    <row r="661">
+    <row r="661" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M661" s="9"/>
     </row>
-    <row r="662">
+    <row r="662" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M662" s="9"/>
     </row>
-    <row r="663">
+    <row r="663" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M663" s="9"/>
     </row>
-    <row r="664">
+    <row r="664" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M664" s="9"/>
     </row>
-    <row r="665">
+    <row r="665" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M665" s="9"/>
     </row>
-    <row r="666">
+    <row r="666" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M666" s="9"/>
     </row>
-    <row r="667">
+    <row r="667" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M667" s="9"/>
     </row>
-    <row r="668">
+    <row r="668" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M668" s="9"/>
     </row>
-    <row r="669">
+    <row r="669" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M669" s="9"/>
     </row>
-    <row r="670">
+    <row r="670" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M670" s="9"/>
     </row>
-    <row r="671">
+    <row r="671" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M671" s="9"/>
     </row>
-    <row r="672">
+    <row r="672" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M672" s="9"/>
     </row>
-    <row r="673">
+    <row r="673" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M673" s="9"/>
     </row>
-    <row r="674">
+    <row r="674" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M674" s="9"/>
     </row>
-    <row r="675">
+    <row r="675" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M675" s="9"/>
     </row>
-    <row r="676">
+    <row r="676" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M676" s="9"/>
     </row>
-    <row r="677">
+    <row r="677" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M677" s="9"/>
     </row>
-    <row r="678">
+    <row r="678" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M678" s="9"/>
     </row>
-    <row r="679">
+    <row r="679" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M679" s="9"/>
     </row>
-    <row r="680">
+    <row r="680" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M680" s="9"/>
     </row>
-    <row r="681">
+    <row r="681" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M681" s="9"/>
     </row>
-    <row r="682">
+    <row r="682" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M682" s="9"/>
     </row>
-    <row r="683">
+    <row r="683" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M683" s="9"/>
     </row>
-    <row r="684">
+    <row r="684" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M684" s="9"/>
     </row>
-    <row r="685">
+    <row r="685" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M685" s="9"/>
     </row>
-    <row r="686">
+    <row r="686" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M686" s="9"/>
     </row>
-    <row r="687">
+    <row r="687" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M687" s="9"/>
     </row>
-    <row r="688">
+    <row r="688" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M688" s="9"/>
     </row>
-    <row r="689">
+    <row r="689" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M689" s="9"/>
     </row>
-    <row r="690">
+    <row r="690" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M690" s="9"/>
     </row>
-    <row r="691">
+    <row r="691" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M691" s="9"/>
     </row>
-    <row r="692">
+    <row r="692" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M692" s="9"/>
     </row>
-    <row r="693">
+    <row r="693" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M693" s="9"/>
     </row>
-    <row r="694">
+    <row r="694" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M694" s="9"/>
     </row>
-    <row r="695">
+    <row r="695" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M695" s="9"/>
     </row>
-    <row r="696">
+    <row r="696" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M696" s="9"/>
     </row>
-    <row r="697">
+    <row r="697" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M697" s="9"/>
     </row>
-    <row r="698">
+    <row r="698" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M698" s="9"/>
     </row>
-    <row r="699">
+    <row r="699" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M699" s="9"/>
     </row>
-    <row r="700">
+    <row r="700" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M700" s="9"/>
     </row>
-    <row r="701">
+    <row r="701" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M701" s="9"/>
     </row>
-    <row r="702">
+    <row r="702" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M702" s="9"/>
     </row>
-    <row r="703">
+    <row r="703" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M703" s="9"/>
     </row>
-    <row r="704">
+    <row r="704" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M704" s="9"/>
     </row>
-    <row r="705">
+    <row r="705" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M705" s="9"/>
     </row>
-    <row r="706">
+    <row r="706" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M706" s="9"/>
     </row>
-    <row r="707">
+    <row r="707" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M707" s="9"/>
     </row>
-    <row r="708">
+    <row r="708" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M708" s="9"/>
     </row>
-    <row r="709">
+    <row r="709" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M709" s="9"/>
     </row>
-    <row r="710">
+    <row r="710" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M710" s="9"/>
     </row>
-    <row r="711">
+    <row r="711" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M711" s="9"/>
     </row>
-    <row r="712">
+    <row r="712" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M712" s="9"/>
     </row>
-    <row r="713">
+    <row r="713" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M713" s="9"/>
     </row>
-    <row r="714">
+    <row r="714" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M714" s="9"/>
     </row>
-    <row r="715">
+    <row r="715" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M715" s="9"/>
     </row>
-    <row r="716">
+    <row r="716" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M716" s="9"/>
     </row>
-    <row r="717">
+    <row r="717" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M717" s="9"/>
     </row>
-    <row r="718">
+    <row r="718" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M718" s="9"/>
     </row>
-    <row r="719">
+    <row r="719" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M719" s="9"/>
     </row>
-    <row r="720">
+    <row r="720" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M720" s="9"/>
     </row>
-    <row r="721">
+    <row r="721" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M721" s="9"/>
     </row>
-    <row r="722">
+    <row r="722" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M722" s="9"/>
     </row>
-    <row r="723">
+    <row r="723" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M723" s="9"/>
     </row>
-    <row r="724">
+    <row r="724" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M724" s="9"/>
     </row>
-    <row r="725">
+    <row r="725" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M725" s="9"/>
     </row>
-    <row r="726">
+    <row r="726" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M726" s="9"/>
     </row>
-    <row r="727">
+    <row r="727" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M727" s="9"/>
     </row>
-    <row r="728">
+    <row r="728" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M728" s="9"/>
     </row>
-    <row r="729">
+    <row r="729" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M729" s="9"/>
     </row>
-    <row r="730">
+    <row r="730" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M730" s="9"/>
     </row>
-    <row r="731">
+    <row r="731" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M731" s="9"/>
     </row>
-    <row r="732">
+    <row r="732" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M732" s="9"/>
     </row>
-    <row r="733">
+    <row r="733" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M733" s="9"/>
     </row>
-    <row r="734">
+    <row r="734" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M734" s="9"/>
     </row>
-    <row r="735">
+    <row r="735" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M735" s="9"/>
     </row>
-    <row r="736">
+    <row r="736" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M736" s="9"/>
     </row>
-    <row r="737">
+    <row r="737" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M737" s="9"/>
     </row>
-    <row r="738">
+    <row r="738" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M738" s="9"/>
     </row>
-    <row r="739">
+    <row r="739" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M739" s="9"/>
     </row>
-    <row r="740">
+    <row r="740" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M740" s="9"/>
     </row>
-    <row r="741">
+    <row r="741" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M741" s="9"/>
     </row>
-    <row r="742">
+    <row r="742" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M742" s="9"/>
     </row>
-    <row r="743">
+    <row r="743" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M743" s="9"/>
     </row>
-    <row r="744">
+    <row r="744" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M744" s="9"/>
     </row>
-    <row r="745">
+    <row r="745" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M745" s="9"/>
     </row>
-    <row r="746">
+    <row r="746" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M746" s="9"/>
     </row>
-    <row r="747">
+    <row r="747" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M747" s="9"/>
     </row>
-    <row r="748">
+    <row r="748" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M748" s="9"/>
     </row>
-    <row r="749">
+    <row r="749" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M749" s="9"/>
     </row>
-    <row r="750">
+    <row r="750" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M750" s="9"/>
     </row>
-    <row r="751">
+    <row r="751" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M751" s="9"/>
     </row>
-    <row r="752">
+    <row r="752" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M752" s="9"/>
     </row>
-    <row r="753">
+    <row r="753" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M753" s="9"/>
     </row>
-    <row r="754">
+    <row r="754" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M754" s="9"/>
     </row>
-    <row r="755">
+    <row r="755" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M755" s="9"/>
     </row>
-    <row r="756">
+    <row r="756" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M756" s="9"/>
     </row>
-    <row r="757">
+    <row r="757" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M757" s="9"/>
     </row>
-    <row r="758">
+    <row r="758" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M758" s="9"/>
     </row>
-    <row r="759">
+    <row r="759" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M759" s="9"/>
     </row>
-    <row r="760">
+    <row r="760" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M760" s="9"/>
     </row>
-    <row r="761">
+    <row r="761" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M761" s="9"/>
     </row>
-    <row r="762">
+    <row r="762" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M762" s="9"/>
     </row>
-    <row r="763">
+    <row r="763" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M763" s="9"/>
     </row>
-    <row r="764">
+    <row r="764" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M764" s="9"/>
     </row>
-    <row r="765">
+    <row r="765" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M765" s="9"/>
     </row>
-    <row r="766">
+    <row r="766" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M766" s="9"/>
     </row>
-    <row r="767">
+    <row r="767" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M767" s="9"/>
     </row>
-    <row r="768">
+    <row r="768" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M768" s="9"/>
     </row>
-    <row r="769">
+    <row r="769" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M769" s="9"/>
     </row>
-    <row r="770">
+    <row r="770" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M770" s="9"/>
     </row>
-    <row r="771">
+    <row r="771" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M771" s="9"/>
     </row>
-    <row r="772">
+    <row r="772" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M772" s="9"/>
     </row>
-    <row r="773">
+    <row r="773" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M773" s="9"/>
     </row>
-    <row r="774">
+    <row r="774" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M774" s="9"/>
     </row>
-    <row r="775">
+    <row r="775" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M775" s="9"/>
     </row>
-    <row r="776">
+    <row r="776" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M776" s="9"/>
     </row>
-    <row r="777">
+    <row r="777" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M777" s="9"/>
     </row>
-    <row r="778">
+    <row r="778" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M778" s="9"/>
     </row>
-    <row r="779">
+    <row r="779" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M779" s="9"/>
     </row>
-    <row r="780">
+    <row r="780" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M780" s="9"/>
     </row>
-    <row r="781">
+    <row r="781" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M781" s="9"/>
     </row>
-    <row r="782">
+    <row r="782" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M782" s="9"/>
     </row>
-    <row r="783">
+    <row r="783" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M783" s="9"/>
     </row>
-    <row r="784">
+    <row r="784" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M784" s="9"/>
     </row>
-    <row r="785">
+    <row r="785" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M785" s="9"/>
     </row>
-    <row r="786">
+    <row r="786" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M786" s="9"/>
     </row>
-    <row r="787">
+    <row r="787" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M787" s="9"/>
     </row>
-    <row r="788">
+    <row r="788" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M788" s="9"/>
     </row>
-    <row r="789">
+    <row r="789" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M789" s="9"/>
     </row>
-    <row r="790">
+    <row r="790" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M790" s="9"/>
     </row>
-    <row r="791">
+    <row r="791" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M791" s="9"/>
     </row>
-    <row r="792">
+    <row r="792" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M792" s="9"/>
     </row>
-    <row r="793">
+    <row r="793" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M793" s="9"/>
     </row>
-    <row r="794">
+    <row r="794" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M794" s="9"/>
     </row>
-    <row r="795">
+    <row r="795" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M795" s="9"/>
     </row>
-    <row r="796">
+    <row r="796" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M796" s="9"/>
     </row>
-    <row r="797">
+    <row r="797" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M797" s="9"/>
     </row>
-    <row r="798">
+    <row r="798" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M798" s="9"/>
     </row>
-    <row r="799">
+    <row r="799" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M799" s="9"/>
     </row>
-    <row r="800">
+    <row r="800" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M800" s="9"/>
     </row>
-    <row r="801">
+    <row r="801" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M801" s="9"/>
     </row>
-    <row r="802">
+    <row r="802" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M802" s="9"/>
     </row>
-    <row r="803">
+    <row r="803" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M803" s="9"/>
     </row>
-    <row r="804">
+    <row r="804" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M804" s="9"/>
     </row>
-    <row r="805">
+    <row r="805" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M805" s="9"/>
     </row>
-    <row r="806">
+    <row r="806" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M806" s="9"/>
     </row>
-    <row r="807">
+    <row r="807" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M807" s="9"/>
     </row>
-    <row r="808">
+    <row r="808" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M808" s="9"/>
     </row>
-    <row r="809">
+    <row r="809" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M809" s="9"/>
     </row>
-    <row r="810">
+    <row r="810" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M810" s="9"/>
     </row>
-    <row r="811">
+    <row r="811" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M811" s="9"/>
     </row>
-    <row r="812">
+    <row r="812" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M812" s="9"/>
     </row>
-    <row r="813">
+    <row r="813" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M813" s="9"/>
     </row>
-    <row r="814">
+    <row r="814" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M814" s="9"/>
     </row>
-    <row r="815">
+    <row r="815" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M815" s="9"/>
     </row>
-    <row r="816">
+    <row r="816" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M816" s="9"/>
     </row>
-    <row r="817">
+    <row r="817" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M817" s="9"/>
     </row>
-    <row r="818">
+    <row r="818" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M818" s="9"/>
     </row>
-    <row r="819">
+    <row r="819" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M819" s="9"/>
     </row>
-    <row r="820">
+    <row r="820" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M820" s="9"/>
     </row>
-    <row r="821">
+    <row r="821" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M821" s="9"/>
     </row>
-    <row r="822">
+    <row r="822" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M822" s="9"/>
     </row>
-    <row r="823">
+    <row r="823" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M823" s="9"/>
     </row>
-    <row r="824">
+    <row r="824" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M824" s="9"/>
     </row>
-    <row r="825">
+    <row r="825" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M825" s="9"/>
     </row>
-    <row r="826">
+    <row r="826" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M826" s="9"/>
     </row>
-    <row r="827">
+    <row r="827" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M827" s="9"/>
     </row>
-    <row r="828">
+    <row r="828" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M828" s="9"/>
     </row>
-    <row r="829">
+    <row r="829" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M829" s="9"/>
     </row>
-    <row r="830">
+    <row r="830" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M830" s="9"/>
     </row>
-    <row r="831">
+    <row r="831" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M831" s="9"/>
     </row>
-    <row r="832">
+    <row r="832" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M832" s="9"/>
     </row>
-    <row r="833">
+    <row r="833" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M833" s="9"/>
     </row>
-    <row r="834">
+    <row r="834" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M834" s="9"/>
     </row>
-    <row r="835">
+    <row r="835" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M835" s="9"/>
     </row>
-    <row r="836">
+    <row r="836" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M836" s="9"/>
     </row>
-    <row r="837">
+    <row r="837" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M837" s="9"/>
     </row>
-    <row r="838">
+    <row r="838" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M838" s="9"/>
     </row>
-    <row r="839">
+    <row r="839" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M839" s="9"/>
     </row>
-    <row r="840">
+    <row r="840" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M840" s="9"/>
     </row>
-    <row r="841">
+    <row r="841" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M841" s="9"/>
     </row>
-    <row r="842">
+    <row r="842" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M842" s="9"/>
     </row>
-    <row r="843">
+    <row r="843" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M843" s="9"/>
     </row>
-    <row r="844">
+    <row r="844" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M844" s="9"/>
     </row>
-    <row r="845">
+    <row r="845" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M845" s="9"/>
     </row>
-    <row r="846">
+    <row r="846" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M846" s="9"/>
     </row>
-    <row r="847">
+    <row r="847" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M847" s="9"/>
     </row>
-    <row r="848">
+    <row r="848" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M848" s="9"/>
     </row>
-    <row r="849">
+    <row r="849" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M849" s="9"/>
     </row>
-    <row r="850">
+    <row r="850" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M850" s="9"/>
     </row>
-    <row r="851">
+    <row r="851" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M851" s="9"/>
     </row>
-    <row r="852">
+    <row r="852" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M852" s="9"/>
     </row>
-    <row r="853">
+    <row r="853" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M853" s="9"/>
     </row>
-    <row r="854">
+    <row r="854" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M854" s="9"/>
     </row>
-    <row r="855">
+    <row r="855" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M855" s="9"/>
     </row>
-    <row r="856">
+    <row r="856" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M856" s="9"/>
     </row>
-    <row r="857">
+    <row r="857" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M857" s="9"/>
     </row>
-    <row r="858">
+    <row r="858" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M858" s="9"/>
     </row>
-    <row r="859">
+    <row r="859" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M859" s="9"/>
     </row>
-    <row r="860">
+    <row r="860" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M860" s="9"/>
     </row>
-    <row r="861">
+    <row r="861" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M861" s="9"/>
     </row>
-    <row r="862">
+    <row r="862" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M862" s="9"/>
     </row>
-    <row r="863">
+    <row r="863" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M863" s="9"/>
     </row>
-    <row r="864">
+    <row r="864" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M864" s="9"/>
     </row>
-    <row r="865">
+    <row r="865" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M865" s="9"/>
     </row>
-    <row r="866">
+    <row r="866" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M866" s="9"/>
     </row>
-    <row r="867">
+    <row r="867" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M867" s="9"/>
     </row>
-    <row r="868">
+    <row r="868" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M868" s="9"/>
     </row>
-    <row r="869">
+    <row r="869" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M869" s="9"/>
     </row>
-    <row r="870">
+    <row r="870" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M870" s="9"/>
     </row>
-    <row r="871">
+    <row r="871" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M871" s="9"/>
     </row>
-    <row r="872">
+    <row r="872" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M872" s="9"/>
     </row>
-    <row r="873">
+    <row r="873" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M873" s="9"/>
     </row>
-    <row r="874">
+    <row r="874" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M874" s="9"/>
     </row>
-    <row r="875">
+    <row r="875" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M875" s="9"/>
     </row>
-    <row r="876">
+    <row r="876" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M876" s="9"/>
     </row>
-    <row r="877">
+    <row r="877" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M877" s="9"/>
     </row>
-    <row r="878">
+    <row r="878" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M878" s="9"/>
     </row>
-    <row r="879">
+    <row r="879" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M879" s="9"/>
     </row>
-    <row r="880">
+    <row r="880" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M880" s="9"/>
     </row>
-    <row r="881">
+    <row r="881" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M881" s="9"/>
     </row>
-    <row r="882">
+    <row r="882" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M882" s="9"/>
     </row>
-    <row r="883">
+    <row r="883" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M883" s="9"/>
     </row>
-    <row r="884">
+    <row r="884" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M884" s="9"/>
     </row>
-    <row r="885">
+    <row r="885" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M885" s="9"/>
     </row>
-    <row r="886">
+    <row r="886" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M886" s="9"/>
     </row>
-    <row r="887">
+    <row r="887" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M887" s="9"/>
     </row>
-    <row r="888">
+    <row r="888" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M888" s="9"/>
     </row>
-    <row r="889">
+    <row r="889" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M889" s="9"/>
     </row>
-    <row r="890">
+    <row r="890" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M890" s="9"/>
     </row>
-    <row r="891">
+    <row r="891" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M891" s="9"/>
     </row>
-    <row r="892">
+    <row r="892" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M892" s="9"/>
     </row>
-    <row r="893">
+    <row r="893" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M893" s="9"/>
     </row>
-    <row r="894">
+    <row r="894" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M894" s="9"/>
     </row>
-    <row r="895">
+    <row r="895" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M895" s="9"/>
     </row>
-    <row r="896">
+    <row r="896" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M896" s="9"/>
     </row>
-    <row r="897">
+    <row r="897" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M897" s="9"/>
     </row>
-    <row r="898">
+    <row r="898" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M898" s="9"/>
     </row>
-    <row r="899">
+    <row r="899" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M899" s="9"/>
     </row>
-    <row r="900">
+    <row r="900" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M900" s="9"/>
     </row>
-    <row r="901">
+    <row r="901" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M901" s="9"/>
     </row>
-    <row r="902">
+    <row r="902" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M902" s="9"/>
     </row>
-    <row r="903">
+    <row r="903" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M903" s="9"/>
     </row>
-    <row r="904">
+    <row r="904" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M904" s="9"/>
     </row>
-    <row r="905">
+    <row r="905" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M905" s="9"/>
     </row>
-    <row r="906">
+    <row r="906" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M906" s="9"/>
     </row>
-    <row r="907">
+    <row r="907" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M907" s="9"/>
     </row>
-    <row r="908">
+    <row r="908" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M908" s="9"/>
     </row>
-    <row r="909">
+    <row r="909" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M909" s="9"/>
     </row>
-    <row r="910">
+    <row r="910" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M910" s="9"/>
     </row>
-    <row r="911">
+    <row r="911" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M911" s="9"/>
     </row>
-    <row r="912">
+    <row r="912" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M912" s="9"/>
     </row>
-    <row r="913">
+    <row r="913" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M913" s="9"/>
     </row>
-    <row r="914">
+    <row r="914" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M914" s="9"/>
     </row>
-    <row r="915">
+    <row r="915" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M915" s="9"/>
     </row>
-    <row r="916">
+    <row r="916" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M916" s="9"/>
     </row>
-    <row r="917">
+    <row r="917" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M917" s="9"/>
     </row>
-    <row r="918">
+    <row r="918" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M918" s="9"/>
     </row>
-    <row r="919">
+    <row r="919" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M919" s="9"/>
     </row>
-    <row r="920">
+    <row r="920" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M920" s="9"/>
     </row>
-    <row r="921">
+    <row r="921" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M921" s="9"/>
     </row>
-    <row r="922">
+    <row r="922" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M922" s="9"/>
     </row>
-    <row r="923">
+    <row r="923" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M923" s="9"/>
     </row>
-    <row r="924">
+    <row r="924" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M924" s="9"/>
     </row>
-    <row r="925">
+    <row r="925" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M925" s="9"/>
     </row>
-    <row r="926">
+    <row r="926" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M926" s="9"/>
     </row>
-    <row r="927">
+    <row r="927" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M927" s="9"/>
     </row>
-    <row r="928">
+    <row r="928" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M928" s="9"/>
     </row>
-    <row r="929">
+    <row r="929" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M929" s="9"/>
     </row>
-    <row r="930">
+    <row r="930" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M930" s="9"/>
     </row>
-    <row r="931">
+    <row r="931" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M931" s="9"/>
     </row>
-    <row r="932">
+    <row r="932" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M932" s="9"/>
     </row>
-    <row r="933">
+    <row r="933" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M933" s="9"/>
     </row>
-    <row r="934">
+    <row r="934" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M934" s="9"/>
     </row>
-    <row r="935">
+    <row r="935" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M935" s="9"/>
     </row>
-    <row r="936">
+    <row r="936" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M936" s="9"/>
     </row>
-    <row r="937">
+    <row r="937" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M937" s="9"/>
     </row>
-    <row r="938">
+    <row r="938" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M938" s="9"/>
     </row>
-    <row r="939">
+    <row r="939" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M939" s="9"/>
     </row>
-    <row r="940">
+    <row r="940" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M940" s="9"/>
     </row>
-    <row r="941">
+    <row r="941" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M941" s="9"/>
     </row>
-    <row r="942">
+    <row r="942" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M942" s="9"/>
     </row>
-    <row r="943">
+    <row r="943" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M943" s="9"/>
     </row>
-    <row r="944">
+    <row r="944" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M944" s="9"/>
     </row>
-    <row r="945">
+    <row r="945" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M945" s="9"/>
     </row>
-    <row r="946">
+    <row r="946" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M946" s="9"/>
     </row>
-    <row r="947">
+    <row r="947" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M947" s="9"/>
     </row>
-    <row r="948">
+    <row r="948" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M948" s="9"/>
     </row>
-    <row r="949">
+    <row r="949" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M949" s="9"/>
     </row>
-    <row r="950">
+    <row r="950" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M950" s="9"/>
     </row>
-    <row r="951">
+    <row r="951" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M951" s="9"/>
     </row>
-    <row r="952">
+    <row r="952" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M952" s="9"/>
     </row>
-    <row r="953">
+    <row r="953" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M953" s="9"/>
     </row>
-    <row r="954">
+    <row r="954" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M954" s="9"/>
     </row>
-    <row r="955">
+    <row r="955" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M955" s="9"/>
     </row>
-    <row r="956">
+    <row r="956" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M956" s="9"/>
     </row>
-    <row r="957">
+    <row r="957" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M957" s="9"/>
     </row>
-    <row r="958">
+    <row r="958" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M958" s="9"/>
     </row>
-    <row r="959">
+    <row r="959" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M959" s="9"/>
     </row>
-    <row r="960">
+    <row r="960" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M960" s="9"/>
     </row>
-    <row r="961">
+    <row r="961" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M961" s="9"/>
     </row>
-    <row r="962">
+    <row r="962" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M962" s="9"/>
     </row>
-    <row r="963">
+    <row r="963" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M963" s="9"/>
     </row>
-    <row r="964">
+    <row r="964" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M964" s="9"/>
     </row>
-    <row r="965">
+    <row r="965" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M965" s="9"/>
     </row>
-    <row r="966">
+    <row r="966" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M966" s="9"/>
     </row>
-    <row r="967">
+    <row r="967" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M967" s="9"/>
     </row>
-    <row r="968">
+    <row r="968" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M968" s="9"/>
     </row>
-    <row r="969">
+    <row r="969" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M969" s="9"/>
     </row>
-    <row r="970">
+    <row r="970" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M970" s="9"/>
     </row>
-    <row r="971">
+    <row r="971" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M971" s="9"/>
     </row>
-    <row r="972">
+    <row r="972" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M972" s="9"/>
     </row>
-    <row r="973">
+    <row r="973" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M973" s="9"/>
     </row>
-    <row r="974">
+    <row r="974" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M974" s="9"/>
     </row>
-    <row r="975">
+    <row r="975" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M975" s="9"/>
     </row>
-    <row r="976">
+    <row r="976" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M976" s="9"/>
     </row>
-    <row r="977">
+    <row r="977" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M977" s="9"/>
     </row>
-    <row r="978">
+    <row r="978" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M978" s="9"/>
     </row>
-    <row r="979">
+    <row r="979" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M979" s="9"/>
     </row>
-    <row r="980">
+    <row r="980" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M980" s="9"/>
     </row>
-    <row r="981">
+    <row r="981" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M981" s="9"/>
     </row>
-    <row r="982">
+    <row r="982" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M982" s="9"/>
     </row>
-    <row r="983">
+    <row r="983" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M983" s="9"/>
     </row>
-    <row r="984">
+    <row r="984" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M984" s="9"/>
     </row>
-    <row r="985">
+    <row r="985" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M985" s="9"/>
     </row>
-    <row r="986">
+    <row r="986" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M986" s="9"/>
     </row>
-    <row r="987">
+    <row r="987" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M987" s="9"/>
     </row>
-    <row r="988">
+    <row r="988" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M988" s="9"/>
     </row>
-    <row r="989">
+    <row r="989" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M989" s="9"/>
     </row>
-    <row r="990">
+    <row r="990" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M990" s="9"/>
     </row>
-    <row r="991">
+    <row r="991" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M991" s="9"/>
     </row>
-    <row r="992">
+    <row r="992" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M992" s="9"/>
     </row>
-    <row r="993">
+    <row r="993" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M993" s="9"/>
     </row>
-    <row r="994">
+    <row r="994" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M994" s="9"/>
     </row>
-    <row r="995">
+    <row r="995" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M995" s="9"/>
     </row>
-    <row r="996">
+    <row r="996" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M996" s="9"/>
     </row>
-    <row r="997">
+    <row r="997" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M997" s="9"/>
     </row>
-    <row r="998">
+    <row r="998" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M998" s="9"/>
     </row>
-    <row r="999">
+    <row r="999" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M999" s="9"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M1000" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>